--- a/mm.2pho.xlsx
+++ b/mm.2pho.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ananya\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ananya\Documents\GitHub\GurvichFig1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48393117-130D-4BF6-A82E-EC8C059CD92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA957E79-1883-4996-AC50-45BE4533B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{75184AC4-AF52-4142-ABD4-C33EB8DFCEA2}"/>
+    <workbookView xWindow="3660" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{75184AC4-AF52-4142-ABD4-C33EB8DFCEA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
     <t>_1</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>_24.67</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -422,28 +422,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>-0.31139579125994599</v>
       </c>
       <c r="G21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>1.8419374444877801</v>
@@ -980,7 +980,7 @@
         <v>-1.71860757213902E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>0.27356670946121098</v>
